--- a/Test/Sensor.xlsx
+++ b/Test/Sensor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\6Sbb\pro4S\git\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323EA670-1D05-4B33-8643-923A0C69099C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB54D78E-E586-405C-832C-926A6A34074D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1185" yWindow="4260" windowWidth="21600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Bauteile</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Ultraschallsensor 1</t>
   </si>
   <si>
-    <t>V1: Serial UART</t>
-  </si>
-  <si>
     <t>3.3 V</t>
   </si>
   <si>
@@ -126,15 +123,6 @@
     <t>Ultraschallsensor 2</t>
   </si>
   <si>
-    <t>V2: Trig/Echo</t>
-  </si>
-  <si>
-    <t>Pin10: Trig</t>
-  </si>
-  <si>
-    <t>Pin14: Echo</t>
-  </si>
-  <si>
     <t>Motor Controller</t>
   </si>
   <si>
@@ -160,13 +148,43 @@
   </si>
   <si>
     <t>Pin  13: Echo (DIO1)</t>
+  </si>
+  <si>
+    <t>Linefolower</t>
+  </si>
+  <si>
+    <t>IR_R</t>
+  </si>
+  <si>
+    <t>IR_L</t>
+  </si>
+  <si>
+    <t>ULTRASHAL</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AI0              PIN_3</t>
+  </si>
+  <si>
+    <t>AI2              PIN_7</t>
+  </si>
+  <si>
+    <t>AI1              PIN_5</t>
+  </si>
+  <si>
+    <t>AI3              PIN_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +212,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +252,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -338,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -361,39 +411,45 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -421,10 +477,10 @@
       <xdr:rowOff>243579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603167</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>80243</xdr:rowOff>
+      <xdr:rowOff>86593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -530,6 +586,53 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115955</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13390</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920A4059-585E-4062-859F-0259819AF065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20539" t="60802" r="18473" b="23898"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696738" y="6735692"/>
+          <a:ext cx="3268456" cy="1165915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -800,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,20 +916,22 @@
     <col min="3" max="3" width="29.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -834,54 +939,54 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="68.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -895,8 +1000,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -908,8 +1013,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -917,8 +1022,8 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
@@ -926,221 +1031,255 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="H18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
+      <c r="H19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="H20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="H21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="H22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="H24" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
+      <c r="H25" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="H26" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H27" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H28" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H29" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H30" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -1153,7 +1292,30 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
